--- a/archivos/temp_gestion-reservas.xlsx
+++ b/archivos/temp_gestion-reservas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Myriam May</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45535</v>
+        <v>45539</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Iglesia</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sandra Moreno</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>gdgdgdgd  hahahaah</t>
+          <t>Compras</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>fced87ef-54b0-4017-9ca5-6e0f10cd88fd</t>
+          <t>df0c3ab0-896b-4447-9203-8579e4cd3877</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -560,19 +560,15 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Myriam May La Resserva se realizo con exito para el dia: 2024-08-31 a las: 14:00 con el encargado: Sandra Moreno para el servicio de : Iglesia</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Enviar</t>
-        </is>
-      </c>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Mercado La Resserva se realizo con exito para el dia: 2024-09-04 a las: 10:00 con el encargado: Otro para el servicio de : Mercado</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Entidad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -585,12 +581,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Peluqueria</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -600,17 +596,13 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Compras</t>
-        </is>
-      </c>
+          <t>Jose Alfaro</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>df0c3ab0-896b-4447-9203-8579e4cd3877</t>
+          <t>28c31970-5dc3-44a8-8d08-73de92faba32</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -620,12 +612,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>573115774797</t>
+          <t>5732050000000</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Mercado La Resserva se realizo con exito para el dia: 2024-09-04 a las: 10:00 con el encargado: Otro para el servicio de : Mercado</t>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Entidad La Resserva se realizo con exito para el dia: 2024-09-04 a las: 16:00 con el encargado: Jose Alfaro para el servicio de : Peluqueria</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -633,7 +625,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entidad</t>
+          <t>Juzgado</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -642,16 +634,16 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Peluqueria</t>
+          <t>Juzgado</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -661,88 +653,31 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Jose Alfaro</t>
+          <t>Andres Garcia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>28c31970-5dc3-44a8-8d08-73de92faba32</t>
+          <t>2e83df6c-2519-40f3-ba29-65b3348207af</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5732050000000</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Entidad La Resserva se realizo con exito para el dia: 2024-09-04 a las: 16:00 con el encargado: Jose Alfaro para el servicio de : Peluqueria</t>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Juzgado La Resserva se realizo con exito para el dia: 2024-09-05 a las: 11:00 con el encargado: Andres Garcia para el servicio de : Juzgado</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Juzgado</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>josea_garciat@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45540</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Juzgado</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Andres Garcia</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2e83df6c-2519-40f3-ba29-65b3348207af</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Juzgado La Resserva se realizo con exito para el dia: 2024-09-05 a las: 11:00 con el encargado: Andres Garcia para el servicio de : Juzgado</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/archivos/temp_gestion-reservas.xlsx
+++ b/archivos/temp_gestion-reservas.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,181 +500,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>josea_garciat@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45539</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Compras</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>df0c3ab0-896b-4447-9203-8579e4cd3877</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>573115774797</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Mercado La Resserva se realizo con exito para el dia: 2024-09-04 a las: 10:00 con el encargado: Otro para el servicio de : Mercado</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Entidad</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>josea_garciat@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45539</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Peluqueria</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Jose Alfaro</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>28c31970-5dc3-44a8-8d08-73de92faba32</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>5732050000000</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Entidad La Resserva se realizo con exito para el dia: 2024-09-04 a las: 16:00 con el encargado: Jose Alfaro para el servicio de : Peluqueria</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Juzgado</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>josea_garciat@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45540</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Juzgado</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Andres Garcia</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2e83df6c-2519-40f3-ba29-65b3348207af</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Juzgado La Resserva se realizo con exito para el dia: 2024-09-05 a las: 11:00 con el encargado: Andres Garcia para el servicio de : Juzgado</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/archivos/temp_gestion-reservas.xlsx
+++ b/archivos/temp_gestion-reservas.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +485,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>WHATSAPP</t>
+          <t>WHATSSAPP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -499,6 +503,120 @@
           <t>BOTON</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>myyriam  valencia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>josea_garciat@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45550</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Corte Mujer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25.000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mario Vargas</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3e4e7ea4-36bb-4c30-993e-a7935499e97c</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>573205511091</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). myyriam  valencia La Resserva se realizo con exito para el dia: 2024-09-15 a las: 11:00 con el encargado: Mario Vargas para el servicio de : Corte Mujer</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Un Futuro Mas Seguro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>josea_garciat@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Afeitar</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Andres Garcia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ca451e14-98f2-441b-a9ea-932a0b16f54c</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>573205511091</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>web.whatsapp.com/send?phone=&amp;text= Sr(a). Un Futuro Mas Seguro La Resserva se realizo con exito para el dia: 2024-09-17 a las: 12:00 con el encargado: Andres Garcia para el servicio de : Afeitar</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
